--- a/data/trans_orig/P15-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>29109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19736</v>
+        <v>19815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40926</v>
+        <v>40756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04983202574884264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03378595240622252</v>
+        <v>0.03392115757205402</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07006147071825437</v>
+        <v>0.06977159801084191</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -765,19 +765,19 @@
         <v>41160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29159</v>
+        <v>29872</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53854</v>
+        <v>54000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04462617207810589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03161396853714309</v>
+        <v>0.03238755777579969</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05838873989799793</v>
+        <v>0.05854764813464139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -786,19 +786,19 @@
         <v>70269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56685</v>
+        <v>55615</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89113</v>
+        <v>88818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04664476224144357</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0376275963959733</v>
+        <v>0.03691756495861966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05915347444965127</v>
+        <v>0.05895767497062357</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>555032</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>543215</v>
+        <v>543385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>564405</v>
+        <v>564326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9501679742511574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9299385292817459</v>
+        <v>0.930228401989158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9662140475937775</v>
+        <v>0.9660788424279459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>844</v>
@@ -836,19 +836,19 @@
         <v>881173</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>868479</v>
+        <v>868333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>893174</v>
+        <v>892461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9553738279218941</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9416112601020019</v>
+        <v>0.9414523518653586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9683860314628567</v>
+        <v>0.9676124422242003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1389</v>
@@ -857,19 +857,19 @@
         <v>1436205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1417361</v>
+        <v>1417656</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1449789</v>
+        <v>1450859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9533552377585565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9408465255503486</v>
+        <v>0.9410423250293763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9623724036040268</v>
+        <v>0.9630824350413802</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>79276</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63128</v>
+        <v>62338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97783</v>
+        <v>96797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07354718993244357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0585660935868826</v>
+        <v>0.05783320948642675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09071692882749342</v>
+        <v>0.08980224018315058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -982,19 +982,19 @@
         <v>56460</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43390</v>
+        <v>42751</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73019</v>
+        <v>73513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05338855143673717</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04102961212892977</v>
+        <v>0.04042508072534514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06904577878115772</v>
+        <v>0.06951316622484267</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -1003,19 +1003,19 @@
         <v>135736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114664</v>
+        <v>114893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160574</v>
+        <v>157463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06356395190646663</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05369603601394299</v>
+        <v>0.05380331828522234</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0751952710828946</v>
+        <v>0.07373842843371824</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>998618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>980111</v>
+        <v>981097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1014766</v>
+        <v>1015556</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9264528100675564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9092830711725066</v>
+        <v>0.9101977598168495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9414339064131174</v>
+        <v>0.9421667905135732</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>975</v>
@@ -1053,19 +1053,19 @@
         <v>1001078</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>984519</v>
+        <v>984025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1014148</v>
+        <v>1014787</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9466114485632628</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9309542212188421</v>
+        <v>0.930486833775157</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9589703878710701</v>
+        <v>0.9595749192746548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1949</v>
@@ -1074,19 +1074,19 @@
         <v>1999696</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1974858</v>
+        <v>1977969</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2020768</v>
+        <v>2020539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9364360480935334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9248047289171054</v>
+        <v>0.9262615715662819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.946303963986057</v>
+        <v>0.9461966817147778</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>90347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73346</v>
+        <v>73853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108503</v>
+        <v>111164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08055224185910809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06539450409141623</v>
+        <v>0.06584633230373037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09673992962888933</v>
+        <v>0.09911224515892202</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1199,19 +1199,19 @@
         <v>51380</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38535</v>
+        <v>38251</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65945</v>
+        <v>66613</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05169302259227618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03876980636373365</v>
+        <v>0.03848445095625789</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06634702305332901</v>
+        <v>0.06701881111604695</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1220,19 +1220,19 @@
         <v>141727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121507</v>
+        <v>119199</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166551</v>
+        <v>166690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06699333776560465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05743561308401145</v>
+        <v>0.05634451022977096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07872751502463597</v>
+        <v>0.07879329830714656</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1031247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1013091</v>
+        <v>1010430</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1048248</v>
+        <v>1047741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9194477581408919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9032600703711103</v>
+        <v>0.9008877548410779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9346054959085837</v>
+        <v>0.9341536676962696</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>932</v>
@@ -1270,19 +1270,19 @@
         <v>942560</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>927995</v>
+        <v>927327</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>955405</v>
+        <v>955689</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9483069774077239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.933652976946671</v>
+        <v>0.9329811888839528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9612301936362665</v>
+        <v>0.9615155490437419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1950</v>
@@ -1291,19 +1291,19 @@
         <v>1973807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1948983</v>
+        <v>1948844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1994027</v>
+        <v>1996335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9330066622343953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9212724849753643</v>
+        <v>0.9212067016928537</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9425643869159888</v>
+        <v>0.9436554897702291</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>42462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30903</v>
+        <v>30838</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57131</v>
+        <v>58188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09495094701239964</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06910247815789627</v>
+        <v>0.06895846460113164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1277530290272694</v>
+        <v>0.1301172736682014</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>22752</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14940</v>
+        <v>14590</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33917</v>
+        <v>33156</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0666892773406521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04379081682106361</v>
+        <v>0.04276634949365139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0994177020799895</v>
+        <v>0.09718761043654182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1437,19 +1437,19 @@
         <v>65214</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51025</v>
+        <v>51576</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80970</v>
+        <v>83304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08272084168856068</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06472324597340326</v>
+        <v>0.06542234906107819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1027068925289785</v>
+        <v>0.1056672382558881</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>404738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>390069</v>
+        <v>389012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>416297</v>
+        <v>416362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9050490529876004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8722469709727306</v>
+        <v>0.8698827263317988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9308975218421037</v>
+        <v>0.9310415353988684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -1487,19 +1487,19 @@
         <v>318406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307241</v>
+        <v>308002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>326218</v>
+        <v>326568</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9333107226593479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9005822979200107</v>
+        <v>0.9028123895634583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9562091831789364</v>
+        <v>0.9572336505063487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>713</v>
@@ -1508,19 +1508,19 @@
         <v>723144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707388</v>
+        <v>705054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>737333</v>
+        <v>736782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9172791583114394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8972931074710215</v>
+        <v>0.8943327617441117</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9352767540265966</v>
+        <v>0.9345776509389216</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>241194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>215486</v>
+        <v>211047</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275079</v>
+        <v>271751</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07465389314408412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06669669412685593</v>
+        <v>0.06532299159528072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08514183109256866</v>
+        <v>0.08411187949432923</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -1633,19 +1633,19 @@
         <v>171752</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>148080</v>
+        <v>148779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>198349</v>
+        <v>198451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05181102954455382</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04467025093875289</v>
+        <v>0.04488107333915611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05983429786988457</v>
+        <v>0.05986498592700557</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>401</v>
@@ -1654,19 +1654,19 @@
         <v>412946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>375648</v>
+        <v>375528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>455574</v>
+        <v>453506</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06308565054530872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05738764369449229</v>
+        <v>0.0573693316074958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06959797587004908</v>
+        <v>0.06928201287900208</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2989635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2955750</v>
+        <v>2959078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3015343</v>
+        <v>3019782</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9253461068559159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.914858168907431</v>
+        <v>0.9158881205056708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9333033058731435</v>
+        <v>0.9346770084047192</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3068</v>
@@ -1704,19 +1704,19 @@
         <v>3143217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3116620</v>
+        <v>3116518</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3166889</v>
+        <v>3166190</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9481889704554461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9401657021301155</v>
+        <v>0.9401350140729945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9553297490612472</v>
+        <v>0.9551189266608439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6001</v>
@@ -1725,19 +1725,19 @@
         <v>6132852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6090224</v>
+        <v>6092292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6170150</v>
+        <v>6170270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9369143494546913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9304020241299511</v>
+        <v>0.930717987120998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9426123563055078</v>
+        <v>0.9426306683925043</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>77213</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62634</v>
+        <v>61912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98194</v>
+        <v>97334</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07396376496484401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05999796731643356</v>
+        <v>0.05930673673589341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09406150270878562</v>
+        <v>0.09323787510436413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -2090,19 +2090,19 @@
         <v>81504</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65540</v>
+        <v>66386</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98738</v>
+        <v>101081</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07277576659125135</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05852177722450537</v>
+        <v>0.05927740441982469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0881649993120307</v>
+        <v>0.09025633265527679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -2111,19 +2111,19 @@
         <v>158717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137131</v>
+        <v>137119</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>184369</v>
+        <v>184761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07334890488760323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06337325814943033</v>
+        <v>0.06336772830389045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08520368455194544</v>
+        <v>0.08538490845895025</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>966722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>945741</v>
+        <v>946601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>981301</v>
+        <v>982023</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.926036235035156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9059384972912141</v>
+        <v>0.9067621248956359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9400020326835662</v>
+        <v>0.9406932632641065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>954</v>
@@ -2161,19 +2161,19 @@
         <v>1038424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1021190</v>
+        <v>1018847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1054388</v>
+        <v>1053542</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9272242334087487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9118350006879691</v>
+        <v>0.9097436673447233</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9414782227754946</v>
+        <v>0.9407225955801753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1860</v>
@@ -2182,19 +2182,19 @@
         <v>2005146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1979494</v>
+        <v>1979102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2026732</v>
+        <v>2026744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9266510951123967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9147963154480547</v>
+        <v>0.9146150915410498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9366267418505697</v>
+        <v>0.9366322716961095</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>96832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79149</v>
+        <v>78385</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118877</v>
+        <v>115503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09910414854494039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08100619245546366</v>
+        <v>0.08022458095295544</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1216659953734692</v>
+        <v>0.1182135892456204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -2307,19 +2307,19 @@
         <v>84217</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67084</v>
+        <v>67558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104279</v>
+        <v>104819</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07696201653516531</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06130482388294763</v>
+        <v>0.06173847145789171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0952958971513567</v>
+        <v>0.09578956897831535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -2328,19 +2328,19 @@
         <v>181049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156923</v>
+        <v>156416</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208926</v>
+        <v>208141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08740671775394479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07575925168450157</v>
+        <v>0.07551472647714978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1008651762817569</v>
+        <v>0.1004866118527947</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>880241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>858196</v>
+        <v>861570</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897924</v>
+        <v>898688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9008958514550596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8783340046265307</v>
+        <v>0.8817864107543796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9189938075445362</v>
+        <v>0.9197754190470444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>941</v>
@@ -2378,19 +2378,19 @@
         <v>1010045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>989983</v>
+        <v>989443</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1027178</v>
+        <v>1026704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9230379834648347</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9047041028486433</v>
+        <v>0.9042104310216846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9386951761170522</v>
+        <v>0.9382615285421082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1771</v>
@@ -2399,19 +2399,19 @@
         <v>1890286</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1862409</v>
+        <v>1863194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1914412</v>
+        <v>1914919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9125932822460552</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8991348237182432</v>
+        <v>0.8995133881472051</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9242407483154987</v>
+        <v>0.9244852735228501</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>67597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52308</v>
+        <v>53775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84555</v>
+        <v>83450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07637113350940745</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05909747290544878</v>
+        <v>0.06075536263029942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0955296453014268</v>
+        <v>0.09428179412827604</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -2524,19 +2524,19 @@
         <v>63533</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50518</v>
+        <v>46463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82893</v>
+        <v>78456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07254288476944781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05768230706794024</v>
+        <v>0.05305217760744389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09464883818630528</v>
+        <v>0.08958280466545798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2545,19 +2545,19 @@
         <v>131130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109196</v>
+        <v>110357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154261</v>
+        <v>153926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07446713932221412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06201081063145376</v>
+        <v>0.06267057882724072</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08760279444200075</v>
+        <v>0.08741251679655371</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>817518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>800560</v>
+        <v>801665</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>832807</v>
+        <v>831340</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9236288664905925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9044703546985732</v>
+        <v>0.905718205871724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9409025270945512</v>
+        <v>0.9392446373697008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>762</v>
@@ -2595,19 +2595,19 @@
         <v>812263</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>792903</v>
+        <v>797340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>825278</v>
+        <v>829333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9274571152305522</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9053511618136947</v>
+        <v>0.910417195334542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9423176929320598</v>
+        <v>0.9469478223925561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1524</v>
@@ -2616,19 +2616,19 @@
         <v>1629781</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1606650</v>
+        <v>1606985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1651715</v>
+        <v>1650554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9255328606777858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9123972055579993</v>
+        <v>0.9125874832034463</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9379891893685464</v>
+        <v>0.9373294211727593</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>44225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32019</v>
+        <v>31916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60589</v>
+        <v>60428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08791867126617603</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06365246965800464</v>
+        <v>0.06344896352342275</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1204492706296639</v>
+        <v>0.1201296367578219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>27289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18549</v>
+        <v>17737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41439</v>
+        <v>39442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06027659695570209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04097002758367682</v>
+        <v>0.039178019116636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09153085145684328</v>
+        <v>0.08711866178312164</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -2762,19 +2762,19 @@
         <v>71514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55816</v>
+        <v>57109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90077</v>
+        <v>91091</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.074824825925443</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05839994938338493</v>
+        <v>0.0597524865538969</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09424640695609808</v>
+        <v>0.09530781112941417</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>458798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>442434</v>
+        <v>442595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>471004</v>
+        <v>471107</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.912081328733824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8795507293703361</v>
+        <v>0.879870363242178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9363475303419954</v>
+        <v>0.9365510364765772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>387</v>
@@ -2812,19 +2812,19 @@
         <v>425447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>411297</v>
+        <v>413294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>434187</v>
+        <v>434999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9397234030442979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9084691485431562</v>
+        <v>0.9128813382168784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.959029972416323</v>
+        <v>0.9608219808833648</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>808</v>
@@ -2833,19 +2833,19 @@
         <v>884244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>865681</v>
+        <v>864667</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>899942</v>
+        <v>898649</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.925175174074557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9057535930439019</v>
+        <v>0.9046921888705859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9416000506166151</v>
+        <v>0.9402475134461031</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>285868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>254636</v>
+        <v>255087</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>321578</v>
+        <v>320217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08385317008753967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07469217000968199</v>
+        <v>0.07482422562910579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09432817385137354</v>
+        <v>0.09392884362676532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>240</v>
@@ -2958,19 +2958,19 @@
         <v>256542</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>227021</v>
+        <v>226945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288431</v>
+        <v>289580</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0724139207033586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06408086372375599</v>
+        <v>0.0640594774990062</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08141497287304968</v>
+        <v>0.08173942160735018</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>514</v>
@@ -2979,19 +2979,19 @@
         <v>542410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>498227</v>
+        <v>497108</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>591132</v>
+        <v>590641</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07802364575503862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07166807919698301</v>
+        <v>0.07150715246620096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08503215443195841</v>
+        <v>0.08496142361439314</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3123277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3087567</v>
+        <v>3088928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3154509</v>
+        <v>3154058</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9161468299124603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9056718261486267</v>
+        <v>0.9060711563732347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9253078299903182</v>
+        <v>0.925175774370894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3044</v>
@@ -3029,19 +3029,19 @@
         <v>3286180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3254291</v>
+        <v>3253142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3315701</v>
+        <v>3315777</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9275860792966414</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9185850271269503</v>
+        <v>0.9182605783926499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.935919136276244</v>
+        <v>0.9359405225009938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5963</v>
@@ -3050,19 +3050,19 @@
         <v>6409457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6360735</v>
+        <v>6361226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6453640</v>
+        <v>6454759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9219763542449614</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9149678455680416</v>
+        <v>0.9150385763856069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.928331920803017</v>
+        <v>0.9284928475337992</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>75440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59137</v>
+        <v>60104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94790</v>
+        <v>92738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06687925703670987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05242668806774019</v>
+        <v>0.05328380817483701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08403416735924377</v>
+        <v>0.082214476915818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -3415,19 +3415,19 @@
         <v>68085</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53898</v>
+        <v>52474</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86662</v>
+        <v>87621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05405454199350165</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0427911767345863</v>
+        <v>0.04166057764042198</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06880331283306354</v>
+        <v>0.06956449092984969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -3436,19 +3436,19 @@
         <v>143525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>120642</v>
+        <v>122272</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169713</v>
+        <v>169905</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06011355419166257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05052930297899198</v>
+        <v>0.0512123485432294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07108210169100085</v>
+        <v>0.07116276860622853</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1052557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1033207</v>
+        <v>1035259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1068860</v>
+        <v>1067893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9331207429632902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9159658326407556</v>
+        <v>0.9177855230841819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9475733119322597</v>
+        <v>0.9467161918251629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1126</v>
@@ -3486,19 +3486,19 @@
         <v>1191476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1172899</v>
+        <v>1171940</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1205663</v>
+        <v>1207087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9459454580064983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9311966871669366</v>
+        <v>0.93043550907015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9572088232654138</v>
+        <v>0.9583394223595774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2119</v>
@@ -3507,19 +3507,19 @@
         <v>2244033</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2217845</v>
+        <v>2217653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2266916</v>
+        <v>2265286</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9398864458083375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9289178983089992</v>
+        <v>0.9288372313937716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9494706970210081</v>
+        <v>0.9487876514567706</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>50103</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37945</v>
+        <v>36732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65738</v>
+        <v>65464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05512911713057354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04175124893724171</v>
+        <v>0.04041693611220575</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07233331473077421</v>
+        <v>0.07203133817408695</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -3632,19 +3632,19 @@
         <v>49751</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36685</v>
+        <v>36443</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66418</v>
+        <v>66613</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04943122188173178</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03644909177368163</v>
+        <v>0.03620829900429454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06599099661289386</v>
+        <v>0.06618409794713853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -3653,19 +3653,19 @@
         <v>99854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80652</v>
+        <v>81616</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122531</v>
+        <v>121140</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05213491748317304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04210908827393198</v>
+        <v>0.04261258062831903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06397461452178306</v>
+        <v>0.06324848403996244</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>858722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>843087</v>
+        <v>843361</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>870880</v>
+        <v>872093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9448708828694264</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9276666852692257</v>
+        <v>0.9279686618259131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9582487510627582</v>
+        <v>0.9595830638877942</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>907</v>
@@ -3703,19 +3703,19 @@
         <v>956724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>940057</v>
+        <v>939862</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>969790</v>
+        <v>970032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9505687781182682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9340090033871061</v>
+        <v>0.9338159020528611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635509082263183</v>
+        <v>0.9637917009957052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1740</v>
@@ -3724,19 +3724,19 @@
         <v>1815446</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1792769</v>
+        <v>1794160</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1834648</v>
+        <v>1833684</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.947865082516827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9360253854782168</v>
+        <v>0.9367515159600376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.957890911726068</v>
+        <v>0.957387419371681</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>47765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35614</v>
+        <v>35295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61887</v>
+        <v>60872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05798472605179437</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04323304099122594</v>
+        <v>0.0428459441887017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07512698517343716</v>
+        <v>0.07389498279428382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3849,19 +3849,19 @@
         <v>50138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36963</v>
+        <v>37625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66335</v>
+        <v>66402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06502538464551949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04793753189672179</v>
+        <v>0.04879682266093409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08603076639859678</v>
+        <v>0.08611747783907893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -3870,19 +3870,19 @@
         <v>97904</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77409</v>
+        <v>79453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118449</v>
+        <v>120839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06138872642844755</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04853763826890842</v>
+        <v>0.04981936635261344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07427127914825624</v>
+        <v>0.07576968333480108</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>775994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>761872</v>
+        <v>762887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>788145</v>
+        <v>788464</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9420152739482056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9248730148265629</v>
+        <v>0.9261050172057163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9567669590087743</v>
+        <v>0.9571540558112984</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -3920,19 +3920,19 @@
         <v>720921</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704724</v>
+        <v>704657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>734096</v>
+        <v>733434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9349746153544806</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9139692336014038</v>
+        <v>0.9138825221609209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.952062468103279</v>
+        <v>0.9512031773390657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1424</v>
@@ -3941,19 +3941,19 @@
         <v>1496914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1476369</v>
+        <v>1473979</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1517409</v>
+        <v>1515365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9386112735715525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9257287208517432</v>
+        <v>0.9242303166651987</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9514623617310914</v>
+        <v>0.9501806336473863</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>25309</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16692</v>
+        <v>17105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36289</v>
+        <v>36126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04994956628930314</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0329429406349365</v>
+        <v>0.03375756863903449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07161759752050066</v>
+        <v>0.07129647384090347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4066,19 +4066,19 @@
         <v>22430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14813</v>
+        <v>13485</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34589</v>
+        <v>35043</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04580405888996292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03024982300765858</v>
+        <v>0.02753749769364342</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07063342404227042</v>
+        <v>0.07156131702067982</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -4087,19 +4087,19 @@
         <v>47740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35174</v>
+        <v>35835</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63157</v>
+        <v>62878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.047912183735852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03530121935023665</v>
+        <v>0.03596486381622657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0633849635819517</v>
+        <v>0.06310498169367604</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>481392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470412</v>
+        <v>470575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>490009</v>
+        <v>489596</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9500504337106969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9283824024794993</v>
+        <v>0.9287035261590966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9670570593650635</v>
+        <v>0.9662424313609655</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>435</v>
@@ -4137,19 +4137,19 @@
         <v>467268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>455109</v>
+        <v>454655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>474885</v>
+        <v>476213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.954195941110037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9293665759577296</v>
+        <v>0.9284386829793204</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9697501769923415</v>
+        <v>0.9724625023063566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>881</v>
@@ -4158,19 +4158,19 @@
         <v>948658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>933241</v>
+        <v>933520</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>961224</v>
+        <v>960563</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.952087816264148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9366150364180482</v>
+        <v>0.9368950183063239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9646987806497633</v>
+        <v>0.9640351361837733</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>198617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>171005</v>
+        <v>171884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>227529</v>
+        <v>228526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05898444482190096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05078415367490274</v>
+        <v>0.05104525753787891</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06757066427914166</v>
+        <v>0.06786657792589276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -4283,19 +4283,19 @@
         <v>190405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165123</v>
+        <v>162994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220140</v>
+        <v>220769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05398809793382599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04681972314015945</v>
+        <v>0.04621580845684083</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06241929127775488</v>
+        <v>0.06259776131876126</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>363</v>
@@ -4304,19 +4304,19 @@
         <v>389022</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351608</v>
+        <v>350294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>428630</v>
+        <v>434684</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05642847045016023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05100147540902826</v>
+        <v>0.0508108159630695</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06217366740508195</v>
+        <v>0.06305187973593679</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3168665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3139753</v>
+        <v>3138756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3196277</v>
+        <v>3195398</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.941015555178099</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9324293357208586</v>
+        <v>0.9321334220741073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9492158463250976</v>
+        <v>0.9489547424621213</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3151</v>
@@ -4354,19 +4354,19 @@
         <v>3336387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3306652</v>
+        <v>3306023</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3361669</v>
+        <v>3363798</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.946011902066174</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9375807087222451</v>
+        <v>0.9374022386812387</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9531802768598405</v>
+        <v>0.9537841915431591</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6164</v>
@@ -4375,19 +4375,19 @@
         <v>6505053</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6465445</v>
+        <v>6459391</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6542467</v>
+        <v>6543781</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9435715295498398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.937826332594918</v>
+        <v>0.9369481202640632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9489985245909717</v>
+        <v>0.9491891840369305</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>41815</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29871</v>
+        <v>29875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56083</v>
+        <v>55892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08384112548213797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05989258308324023</v>
+        <v>0.0599019399349632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1124505870980366</v>
+        <v>0.1120663939004682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -4740,19 +4740,19 @@
         <v>48581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38798</v>
+        <v>38730</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62446</v>
+        <v>62282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07790585863820797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06221896053823746</v>
+        <v>0.06210929459049341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1001410654426017</v>
+        <v>0.09987746118085972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -4761,19 +4761,19 @@
         <v>90395</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73605</v>
+        <v>74816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111497</v>
+        <v>110642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0805433881308128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06558333131845745</v>
+        <v>0.06666179286802748</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09934488143156665</v>
+        <v>0.09858324052083131</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>456924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442656</v>
+        <v>442847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468868</v>
+        <v>468864</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.916158874517862</v>
+        <v>0.9161588745178622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8875494129019633</v>
+        <v>0.887933606099532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9401074169167596</v>
+        <v>0.9400980600650369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>789</v>
@@ -4811,19 +4811,19 @@
         <v>574999</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>561134</v>
+        <v>561298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>584782</v>
+        <v>584850</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9220941413617918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8998589345573982</v>
+        <v>0.9001225388191404</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9377810394617628</v>
+        <v>0.9378907054095066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1203</v>
@@ -4832,19 +4832,19 @@
         <v>1031925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1010823</v>
+        <v>1011678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1048715</v>
+        <v>1047504</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9194566118691874</v>
+        <v>0.9194566118691871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9006551185684337</v>
+        <v>0.9014167594791688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9344166686815427</v>
+        <v>0.9333382071319725</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>49383</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37376</v>
+        <v>36197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66753</v>
+        <v>68219</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0514332660815288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03892823951082441</v>
+        <v>0.03769938187800843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06952409498400232</v>
+        <v>0.07105090306786836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -4957,19 +4957,19 @@
         <v>73153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60210</v>
+        <v>60696</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86970</v>
+        <v>88248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06555806435181057</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05395907710688482</v>
+        <v>0.05439476989400454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0779402307153205</v>
+        <v>0.07908581833923488</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -4978,19 +4978,19 @@
         <v>122536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103059</v>
+        <v>103518</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143275</v>
+        <v>142819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05902539170611652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04964344512985339</v>
+        <v>0.04986444212632372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06901557786450409</v>
+        <v>0.06879580086221605</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>910754</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>893384</v>
+        <v>891918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922761</v>
+        <v>923940</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9485667339184713</v>
+        <v>0.9485667339184712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.930475905015998</v>
+        <v>0.9289490969321318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9610717604891758</v>
+        <v>0.962300618121992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1486</v>
@@ -5028,19 +5028,19 @@
         <v>1042696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028879</v>
+        <v>1027601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1055639</v>
+        <v>1055153</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9344419356481894</v>
+        <v>0.9344419356481893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9220597692846797</v>
+        <v>0.9209141816607654</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9460409228931154</v>
+        <v>0.9456052301059957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2346</v>
@@ -5049,19 +5049,19 @@
         <v>1953450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1932711</v>
+        <v>1933167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1972927</v>
+        <v>1972468</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9409746082938836</v>
+        <v>0.9409746082938835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.930984422135496</v>
+        <v>0.931204199137784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9503565548701468</v>
+        <v>0.9501355578736769</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>74625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56813</v>
+        <v>56620</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96992</v>
+        <v>97210</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0713101691909547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05428949210121464</v>
+        <v>0.05410537953985407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09268406729605951</v>
+        <v>0.09289278025239762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -5174,19 +5174,19 @@
         <v>55777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45327</v>
+        <v>44082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69331</v>
+        <v>67578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05324088908846669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04326535133654594</v>
+        <v>0.04207711234413541</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06617768221447784</v>
+        <v>0.06450498063800537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -5195,19 +5195,19 @@
         <v>130402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109409</v>
+        <v>109582</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156063</v>
+        <v>154584</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06227051439604796</v>
+        <v>0.06227051439604797</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0522455767989828</v>
+        <v>0.05232850436780112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07452434614574814</v>
+        <v>0.07381805825069294</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>971854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>949487</v>
+        <v>949269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>989666</v>
+        <v>989859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9286898308090452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9073159327039402</v>
+        <v>0.9071072197476022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9457105078987852</v>
+        <v>0.9458946204601459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1424</v>
@@ -5245,19 +5245,19 @@
         <v>991865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>978311</v>
+        <v>980064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1002315</v>
+        <v>1003560</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9467591109115333</v>
+        <v>0.9467591109115334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.933822317785522</v>
+        <v>0.9354950193619946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.956734648663454</v>
+        <v>0.9579228876558645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2381</v>
@@ -5266,19 +5266,19 @@
         <v>1963719</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1938058</v>
+        <v>1939537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1984712</v>
+        <v>1984539</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.937729485603952</v>
+        <v>0.9377294856039521</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9254756538542518</v>
+        <v>0.9261819417493068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9477544232010171</v>
+        <v>0.9476714956321989</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>55200</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41193</v>
+        <v>39859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74339</v>
+        <v>72670</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05656170171755402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04220881903659405</v>
+        <v>0.04084252272858583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07617261326623379</v>
+        <v>0.07446219273930046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -5391,19 +5391,19 @@
         <v>51578</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39394</v>
+        <v>40429</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66450</v>
+        <v>67801</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05676402856567921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04335503974065763</v>
+        <v>0.04449369242175522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07313134095096917</v>
+        <v>0.07461757647743661</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -5412,19 +5412,19 @@
         <v>106778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88150</v>
+        <v>87550</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131173</v>
+        <v>128193</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05665925318317746</v>
+        <v>0.05665925318317745</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04677481241707893</v>
+        <v>0.04645612328535258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06960362693944368</v>
+        <v>0.06802259897710933</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>920729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>901590</v>
+        <v>903259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934736</v>
+        <v>936070</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9434382982824461</v>
+        <v>0.943438298282446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9238273867337662</v>
+        <v>0.9255378072606997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.957791180963406</v>
+        <v>0.9591574772714141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1252</v>
@@ -5462,19 +5462,19 @@
         <v>857064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>842192</v>
+        <v>840841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>869248</v>
+        <v>868213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9432359714343208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.926868659049031</v>
+        <v>0.9253824235225638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9566449602593425</v>
+        <v>0.9555063075782448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2150</v>
@@ -5483,19 +5483,19 @@
         <v>1777793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1753398</v>
+        <v>1756378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1796421</v>
+        <v>1797021</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9433407468168226</v>
+        <v>0.9433407468168225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9303963730605568</v>
+        <v>0.9319774010228907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9532251875829213</v>
+        <v>0.9535438767146474</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>221023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186718</v>
+        <v>191545</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>254002</v>
+        <v>253924</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06348882532941623</v>
+        <v>0.06348882532941622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05363487798474313</v>
+        <v>0.05502144494812329</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07296220591670886</v>
+        <v>0.07293985558887268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>354</v>
@@ -5608,19 +5608,19 @@
         <v>229089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>204823</v>
+        <v>205399</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>258888</v>
+        <v>256190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06198777258753901</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05542178450675608</v>
+        <v>0.05557765209228419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07005101325665164</v>
+        <v>0.06932097806945625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>566</v>
@@ -5629,19 +5629,19 @@
         <v>450112</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411003</v>
+        <v>412927</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>494220</v>
+        <v>496713</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06271587530701467</v>
+        <v>0.06271587530701468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05726672613787596</v>
+        <v>0.05753477598416858</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06886163623818593</v>
+        <v>0.06920902121897235</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3260261</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3227282</v>
+        <v>3227360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3294566</v>
+        <v>3289739</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9365111746705838</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9270377940832913</v>
+        <v>0.9270601444111275</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9463651220152569</v>
+        <v>0.944978555051877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4951</v>
@@ -5679,19 +5679,19 @@
         <v>3466624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436825</v>
+        <v>3439523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3490890</v>
+        <v>3490314</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.938012227412461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9299489867433484</v>
+        <v>0.9306790219305433</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9445782154932441</v>
+        <v>0.9444223479077157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8080</v>
@@ -5700,19 +5700,19 @@
         <v>6726886</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6682778</v>
+        <v>6680285</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6765995</v>
+        <v>6764071</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9372841246929853</v>
+        <v>0.9372841246929854</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.931138363761814</v>
+        <v>0.9307909787810276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.942733273862124</v>
+        <v>0.9424652240158314</v>
       </c>
     </row>
     <row r="18">
